--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1781,74 +1781,6 @@
     <cellStyle name="40% - Accent6 2 2" xfId="206"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -71989,103 +71921,103 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.01809</v>
+        <v>1.01828</v>
       </c>
       <c r="D3" t="n">
-        <v>1.03265</v>
+        <v>1.03308</v>
       </c>
       <c r="E3" t="n">
-        <v>1.05031</v>
+        <v>1.05116</v>
       </c>
       <c r="F3" t="n">
-        <v>1.07182</v>
+        <v>1.07319</v>
       </c>
       <c r="G3" t="n">
-        <v>1.09128</v>
+        <v>1.09324</v>
       </c>
       <c r="H3" t="n">
-        <v>1.10918</v>
+        <v>1.11184</v>
       </c>
       <c r="I3" t="n">
-        <v>1.12471</v>
+        <v>1.12803</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13317</v>
+        <v>1.1371</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13622</v>
+        <v>1.14072</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14305</v>
+        <v>1.14815</v>
       </c>
       <c r="M3" t="n">
-        <v>1.15161</v>
+        <v>1.1573</v>
       </c>
       <c r="N3" t="n">
-        <v>1.16134</v>
+        <v>1.16758</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17181</v>
+        <v>1.17849</v>
       </c>
       <c r="P3" t="n">
-        <v>1.18181</v>
+        <v>1.18897</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.1915</v>
+        <v>1.19904</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2063</v>
+        <v>1.21423</v>
       </c>
       <c r="S3" t="n">
-        <v>1.22424</v>
+        <v>1.2325</v>
       </c>
       <c r="T3" t="n">
-        <v>1.24274</v>
+        <v>1.25127</v>
       </c>
       <c r="U3" t="n">
-        <v>1.25992</v>
+        <v>1.26872</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27916</v>
+        <v>1.2882</v>
       </c>
       <c r="W3" t="n">
-        <v>1.30109</v>
+        <v>1.31042</v>
       </c>
       <c r="X3" t="n">
-        <v>1.32016</v>
+        <v>1.32966</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.33857</v>
+        <v>1.34842</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.35846</v>
+        <v>1.36855</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.37947</v>
+        <v>1.38986</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.40289</v>
+        <v>1.41358</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.42599</v>
+        <v>1.43695</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.44877</v>
+        <v>1.46002</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.47249</v>
+        <v>1.48407</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.49433</v>
+        <v>1.50625</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.51675</v>
+        <v>1.52906</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.54164</v>
+        <v>1.55437</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.56742</v>
+        <v>1.58055</v>
       </c>
     </row>
     <row r="4">
